--- a/application/static/excel_data/data_crawling -- #kuliahonline.xlsx
+++ b/application/static/excel_data/data_crawling -- #kuliahonline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -458,6 +458,60 @@
   </si>
   <si>
     <t>Wed Dec 09 17:42:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selengkapnya silakan kunjungi laman berikut:⁣
+https://t.co/WRfnwhRBQt⁣
+⁣
+#persma⁣
+#kavling10⁣
+#kuliahonline</t>
+  </si>
+  <si>
+    <t>lpmkavling10</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 10:15:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>📚Promo Buku Perguruan Tinggi Erlangga🎓 
+#PromoBuku #bukuibuku #BukuKuliah #JualBuku #BeliBuku #TokoBuku #BukuMurah #DiskonBuku #BukuDiskon #KuliahOnline #Mahasiswa  #belajardirumah #ingatpesanibu #pakaimasker #CuciTanganPakaiSabun #JagaJarak 
+⏩ https://t.co/eIkeMmFT2n ✔ https://t.co/9CrZWFEhQm</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bolehkah saya menyerah sampe ke titik ini🥺
+#Kuliahonline</t>
+  </si>
+  <si>
+    <t>LisaNurfitri3</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:19:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>📚Promo Buku Perguruan Tinggi Erlangga🎓 
+#PromoBuku #bukuibuku #BukuKuliah #JualBuku #BeliBuku #TokoBuku #BukuMurah #DiskonBuku #BukuDiskon #BacaBuku #KuliahOnline #BelajarDiRumah #ingatpesanibu  
+⏩ https://t.co/eIkeMmXuqX ✔ https://t.co/ONlyEasEcE</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Universitas Islam Bandung (Unisba) memperpanjang perkuliahan dalam jaringan (daring) hingga ujian tengah semester genap 2021. Gimana nih tanggapan sobat kampus?Klik link di bawah ini!!
+https://t.co/7T6v9I0mt6
+#unisba #universitasislambandung #kuliahonline #daring https://t.co/OCiGcYkJ1e</t>
+  </si>
+  <si>
+    <t>suaramahasiswa</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:48:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>aziszaenalakbar</t>
   </si>
 </sst>
 </file>
@@ -820,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,6 +1498,132 @@
         <v>80</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.3377026727370591E+18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.3375779163144479E+18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.33729588193502E+18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.3372155278157051E+18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.337046532605022E+18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.3369672104980191E+18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.3369459570159329E+18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.3368928429463549E+18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.3368656061219141E+18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
